--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Air Unit" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Ground Unit" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Optional Extras ETC" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Nano Talon UAV" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t xml:space="preserve">Bill of Materials (BOM):</t>
   </si>
@@ -31,10 +35,13 @@
     <t xml:space="preserve"> Source  to Buy them</t>
   </si>
   <si>
-    <t xml:space="preserve"> ---------- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">----------------</t>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost: </t>
   </si>
   <si>
     <t xml:space="preserve">D1 Mini Pro </t>
@@ -49,6 +56,12 @@
     <t xml:space="preserve"> https://amzn.to/2ZNQEy1</t>
   </si>
   <si>
+    <t xml:space="preserve">Circuit Board (PCB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://store.mkme.org/product/resq-printed-circuit-board-v1-1/</t>
+  </si>
+  <si>
     <t xml:space="preserve">SD Card Reader</t>
   </si>
   <si>
@@ -61,16 +74,31 @@
     <t xml:space="preserve"> https://amzn.to/3cCHvvj</t>
   </si>
   <si>
+    <t xml:space="preserve">V1.1 PCB Files VCC at end V2.1 Ground at End</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.4 GHz Yagi Antenna</t>
   </si>
   <si>
     <t xml:space="preserve"> https://amzn.to/3gwLso9</t>
   </si>
   <si>
-    <t xml:space="preserve">BN880 GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/2ZPXUJH</t>
+    <t xml:space="preserve">BN220 GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3fYKhfO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipo Battery 200mah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/33VoPFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adafruit Power Boost Charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3aknA4a</t>
   </si>
   <si>
     <t xml:space="preserve">SMA adapter</t>
@@ -89,6 +117,18 @@
   </si>
   <si>
     <t xml:space="preserve"> https://amzn.to/2zB61ze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiOn 5200mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3kJbMO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Ion HUUUUGE capacity but needs a diff charge control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want to use 18650s if you can in the ground unit</t>
   </si>
   <si>
     <t xml:space="preserve">Nano Talon PNP Aircraft</t>
@@ -110,14 +150,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,18 +178,39 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,13 +247,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -210,136 +313,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">SUM(C3:C99)</f>
+        <v>79.4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>22.45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>18</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>15.99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://amzn.to/3fYKhfO"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -348,4 +477,556 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">SUM(C3:C99)</f>
+        <v>109.38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://amzn.to/3fYKhfO"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">SUM(C3:C99)</f>
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="9"/>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">SUM(C3:C99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="252.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Air Unit" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Ground Unit" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Optional Extras ETC" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Optional Extras" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Nano Talon UAV" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t xml:space="preserve">Bill of Materials (BOM):</t>
   </si>
@@ -41,78 +41,102 @@
     <t xml:space="preserve">Notes: </t>
   </si>
   <si>
+    <t xml:space="preserve">Total Cost USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1 Mini Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://amzn.to/2ZQArbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With antenna included</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://amzn.to/2ZNQEy1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Board (PCB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://store.mkme.org/product/resq-printed-circuit-board-v1-1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Card Reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://amzn.to/2XPDv6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96" OLED Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://amzn.to/3cCHvvj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1.1 PCB Files VCC at end V2.1 Ground at End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4 GHz Yagi Antenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://amzn.to/3gwLso9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN220 GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3fYKhfO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo Wire For VCC from FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3kI5BcL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro SD Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/2FjEO6y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost USD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipo Battery 200mah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/33VoPFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adafruit Power Boost Charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3aknA4a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Cost: </t>
   </si>
   <si>
-    <t xml:space="preserve">D1 Mini Pro </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/2ZQArbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With antenna included</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/2ZNQEy1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit Board (PCB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://store.mkme.org/product/resq-printed-circuit-board-v1-1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD Card Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/2XPDv6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96" OLED Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/3cCHvvj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1.1 PCB Files VCC at end V2.1 Ground at End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 GHz Yagi Antenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://amzn.to/3gwLso9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN220 GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3fYKhfO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipo Battery 200mah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/33VoPFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adafruit Power Boost Charger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3aknA4a</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMA adapter</t>
   </si>
   <si>
     <t xml:space="preserve"> https://amzn.to/3ezOpT8</t>
   </si>
   <si>
+    <t xml:space="preserve">Spare for UFLs that can get damaged</t>
+  </si>
+  <si>
     <t xml:space="preserve">nrf24l01</t>
   </si>
   <si>
     <t xml:space="preserve"> https://amzn.to/3exhePP</t>
   </si>
   <si>
+    <t xml:space="preserve">Use this for extra telemetry instead of 3DR I used </t>
+  </si>
+  <si>
     <t xml:space="preserve">LORA Modules</t>
   </si>
   <si>
@@ -128,7 +152,10 @@
     <t xml:space="preserve">Lithium Ion HUUUUGE capacity but needs a diff charge control</t>
   </si>
   <si>
-    <t xml:space="preserve">You want to use 18650s if you can in the ground unit</t>
+    <t xml:space="preserve">LNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost USD : </t>
   </si>
   <si>
     <t xml:space="preserve">Nano Talon PNP Aircraft</t>
@@ -144,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">18650 LiOn cells </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ill finish this another day. Im done</t>
   </si>
 </sst>
 </file>
@@ -199,7 +229,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +240,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -268,11 +304,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,7 +328,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,6 +341,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -315,17 +411,17 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
   </cols>
   <sheetData>
@@ -354,7 +450,7 @@
       </c>
       <c r="F2" s="8" t="n">
         <f aca="false">SUM(C3:C99)</f>
-        <v>79.4</v>
+        <v>93.69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,12 +538,26 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>10.29</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -486,17 +596,17 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
   </cols>
   <sheetData>
@@ -521,11 +631,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F2" s="8" t="n">
         <f aca="false">SUM(C3:C99)</f>
-        <v>109.38</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,15 +723,22 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>10.29</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>14.99</v>
@@ -629,10 +746,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>14.99</v>
@@ -669,16 +786,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
@@ -706,72 +823,82 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="n">
-        <f aca="false">SUM(C3:C99)</f>
+        <f aca="false">SUM(C3:C98)</f>
         <v>29.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>3.99</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="9"/>
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="9"/>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -792,10 +919,6 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -816,16 +939,16 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="68.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
   </cols>
   <sheetData>
@@ -850,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F2" s="8" t="n">
         <f aca="false">SUM(C3:C99)</f>
@@ -863,28 +986,28 @@
     </row>
     <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -898,6 +1021,9 @@
       <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,74 +1076,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="252.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
